--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyukp\Desktop\Personal\External\GlobalEng\TiffanyKim\CareerWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7B1BC2-81D4-4342-8A7A-A39466D86243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343C048-760C-4D40-B033-298D70994935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29890" yWindow="-8430" windowWidth="34620" windowHeight="14620" activeTab="2" xr2:uid="{4730182C-530A-4B0B-989B-EC636810463E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4730182C-530A-4B0B-989B-EC636810463E}"/>
   </bookViews>
   <sheets>
     <sheet name="JobPostings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>JobTitle</t>
   </si>
@@ -83,6 +83,48 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>US-Operations Expert</t>
+  </si>
+  <si>
+    <t>UJU Retail</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Are you open to …</t>
+  </si>
+  <si>
+    <t>Are you interested in…</t>
+  </si>
+  <si>
+    <t>Are located in…</t>
+  </si>
+  <si>
+    <t>How many hours…</t>
+  </si>
+  <si>
+    <t>I am only…</t>
+  </si>
+  <si>
+    <t>I am interested in..</t>
+  </si>
+  <si>
+    <t>Only consider me…</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>You are.</t>
+  </si>
+  <si>
+    <t>He is..</t>
+  </si>
+  <si>
+    <t>She is..</t>
   </si>
 </sst>
 </file>
@@ -136,10 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -455,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B35959-7561-4E61-BB98-29DCA73F6861}">
-  <dimension ref="B2:M22"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,6 +513,11 @@
     <col min="3" max="13" width="52" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -509,6 +557,18 @@
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45240</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -613,13 +673,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80095FAD-D587-4AC0-BAD0-8913D44AD1D0}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,6 +687,11 @@
     <col min="3" max="3" width="74.5546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -639,11 +704,17 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -669,6 +740,9 @@
       <c r="B9">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -683,6 +757,9 @@
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -692,13 +769,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223E8200-B5CF-456F-9343-A18EC757E444}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +784,11 @@
     <col min="5" max="5" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -725,30 +807,84 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>Primary Key</t>
   </si>
@@ -429,6 +429,75 @@
     <t>What is your preferred method of professional development?</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>What programming languages are you most proficient in?</t>
+  </si>
+  <si>
+    <t>Which version control systems are you familiar with?</t>
+  </si>
+  <si>
+    <t>Describe your experience with DevOps practices and tools.</t>
+  </si>
+  <si>
+    <t>What cloud platforms have you worked with for deploying applications?</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>What communication tools are you proficient in for coordinating with team members?</t>
+  </si>
+  <si>
+    <t>Describe your approach to handling confidential and sensitive information.</t>
+  </si>
+  <si>
+    <t>What digital marketing tools and platforms are you proficient in?</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Describe a successful marketing campaign you were involved in.</t>
+  </si>
+  <si>
+    <t>How do you measure the success of a digital marketing campaign?</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>How do you approach user experience (UX) design in your projects?</t>
+  </si>
+  <si>
+    <t>Can you provide an example of a design project where you collaborated successfully with cross-functional teams?</t>
+  </si>
+  <si>
+    <t>What design tools and software are you proficient in?</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Describe a successful sales pitch or negotiation you conducted.</t>
+  </si>
+  <si>
+    <t>How do you approach building and maintaining relationships with clients?</t>
+  </si>
+  <si>
+    <t>How do you stay motivated and meet sales targets during challenging market conditions?</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>How do you handle inventory management and restocking to prevent stockouts?</t>
+  </si>
+  <si>
+    <t>How do you approach customer service to ensure a positive shopping experience for customers?</t>
+  </si>
+  <si>
     <t>QuestionID</t>
   </si>
   <si>
@@ -517,6 +586,177 @@
   </si>
   <si>
     <t>Self-paced online courses</t>
+  </si>
+  <si>
+    <t>FREE RESPONSE</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Mercurial</t>
+  </si>
+  <si>
+    <t>Limited experience with version control</t>
+  </si>
+  <si>
+    <t>Extensive experience with continuous integration/continuous deployment (CI/CD)</t>
+  </si>
+  <si>
+    <t>Familiarity with containerization (e.g., Docker)</t>
+  </si>
+  <si>
+    <t>Proficient in configuration management tools (e.g., Ansible)</t>
+  </si>
+  <si>
+    <t>Limited experience in DevOps practices</t>
+  </si>
+  <si>
+    <t>AWS (Amazon Web Services)</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Google Cloud Platform (GCP)</t>
+  </si>
+  <si>
+    <t>Limited or no experience with cloud platforms</t>
+  </si>
+  <si>
+    <t>Slack or Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Email and phone calls</t>
+  </si>
+  <si>
+    <t>Prefer face-to-face communication</t>
+  </si>
+  <si>
+    <t>Limited experience with team communication tools</t>
+  </si>
+  <si>
+    <t>Adhere strictly to company policies</t>
+  </si>
+  <si>
+    <t>Share information on a need-to-know basis</t>
+  </si>
+  <si>
+    <t>Use secure communication channels</t>
+  </si>
+  <si>
+    <t>Not very concerned about information security</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Social media advertising (e.g., Facebook Ads)</t>
+  </si>
+  <si>
+    <t>Email marketing platforms (e.g., Mailchimp)</t>
+  </si>
+  <si>
+    <t>Content management systems (e.g., WordPress)</t>
+  </si>
+  <si>
+    <t>Clearly defined goals and measurable results</t>
+  </si>
+  <si>
+    <t>High engagement and brand visibility</t>
+  </si>
+  <si>
+    <t>Innovative and creative approach</t>
+  </si>
+  <si>
+    <t>Limited success with the campaign</t>
+  </si>
+  <si>
+    <t>Analyze key performance indicators (KPIs)</t>
+  </si>
+  <si>
+    <t>Rely on intuition and subjective feedback</t>
+  </si>
+  <si>
+    <t>Evaluate social media likes and shares</t>
+  </si>
+  <si>
+    <t>Limited understanding of campaign metrics</t>
+  </si>
+  <si>
+    <t>Conduct user research and usability testing</t>
+  </si>
+  <si>
+    <t>Rely on personal design preferences</t>
+  </si>
+  <si>
+    <t>Follow current design trends</t>
+  </si>
+  <si>
+    <t>Limited consideration for user feedback</t>
+  </si>
+  <si>
+    <t>Adobe Creative Suite (Photoshop, Illustrator, InDesign)</t>
+  </si>
+  <si>
+    <t>Sketch</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
+    <t>Limited proficiency in design tools</t>
+  </si>
+  <si>
+    <t>Regular check-ins and communication</t>
+  </si>
+  <si>
+    <t>Focus on meeting sales targets</t>
+  </si>
+  <si>
+    <t>Rely on product/service features alone</t>
+  </si>
+  <si>
+    <t>Limited emphasis on client relationships</t>
+  </si>
+  <si>
+    <t>Adapt sales strategies based on market conditions</t>
+  </si>
+  <si>
+    <t>Rely on established sales techniques regardless of market conditions</t>
+  </si>
+  <si>
+    <t>Struggle to meet sales targets during challenging times</t>
+  </si>
+  <si>
+    <t>Limited experience with adapting sales strategies to market conditions</t>
+  </si>
+  <si>
+    <t>Regular monitoring and timely restocking</t>
+  </si>
+  <si>
+    <t>React to stockouts without proactive management</t>
+  </si>
+  <si>
+    <t>Rely on automated systems for inventory management</t>
+  </si>
+  <si>
+    <t>Limited involvement in inventory management</t>
+  </si>
+  <si>
+    <t>Prioritize exceptional service and issue resolution</t>
+  </si>
+  <si>
+    <t>Focus on completing transactions without much interaction</t>
+  </si>
+  <si>
+    <t>Follow standard procedures without personalization</t>
+  </si>
+  <si>
+    <t>Limited emphasis on customer service</t>
   </si>
 </sst>
 </file>
@@ -557,19 +797,25 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -638,38 +884,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -697,11 +912,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -710,7 +925,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -718,17 +933,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -738,7 +953,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -746,10 +961,80 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="9"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -758,7 +1043,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -769,7 +1056,9 @@
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -781,152 +1070,170 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -946,6 +1253,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff44546a"/>
     </indexedColors>
@@ -1146,17 +1454,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1183,10 +1491,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1425,12 +1733,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1707,7 +2015,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1734,10 +2042,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1987,16 +2295,16 @@
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.4766" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.9219" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5234" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.4062" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6719" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.3516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
     <col min="13" max="13" width="52" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -2066,10 +2374,10 @@
       <c r="D3" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>44936</v>
       </c>
       <c r="G3" t="s" s="10">
@@ -2088,672 +2396,672 @@
         <v>19</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="13"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="16">
+      <c r="E4" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>44946</v>
       </c>
-      <c r="G4" t="s" s="15">
+      <c r="G4" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H4" t="s" s="15">
+      <c r="H4" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I4" t="s" s="15">
+      <c r="I4" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="J4" t="s" s="15">
+      <c r="J4" t="s" s="14">
         <v>25</v>
       </c>
-      <c r="K4" t="s" s="15">
+      <c r="K4" t="s" s="14">
         <v>26</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="13"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="14">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="D5" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="E5" t="s" s="16">
+      <c r="E5" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>44958</v>
       </c>
-      <c r="G5" t="s" s="15">
+      <c r="G5" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="H5" t="s" s="15">
+      <c r="H5" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="I5" t="s" s="15">
+      <c r="I5" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="J5" t="s" s="15">
+      <c r="J5" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="K5" t="s" s="15">
+      <c r="K5" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="D6" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="E6" t="s" s="16">
+      <c r="E6" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>44967</v>
       </c>
-      <c r="G6" t="s" s="15">
+      <c r="G6" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="15">
+      <c r="H6" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="I6" t="s" s="15">
+      <c r="I6" t="s" s="14">
         <v>38</v>
       </c>
-      <c r="J6" t="s" s="15">
+      <c r="J6" t="s" s="14">
         <v>39</v>
       </c>
-      <c r="K6" t="s" s="15">
+      <c r="K6" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="13"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" t="s" s="14">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="D7" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E7" t="s" s="16">
+      <c r="E7" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>44977</v>
       </c>
-      <c r="G7" t="s" s="15">
+      <c r="G7" t="s" s="14">
         <v>42</v>
       </c>
-      <c r="H7" t="s" s="15">
+      <c r="H7" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="I7" t="s" s="15">
+      <c r="I7" t="s" s="14">
         <v>44</v>
       </c>
-      <c r="J7" t="s" s="15">
+      <c r="J7" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="K7" t="s" s="15">
+      <c r="K7" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="13"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" t="s" s="14">
         <v>47</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="E8" t="s" s="16">
+      <c r="E8" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>44986</v>
       </c>
-      <c r="G8" t="s" s="15">
+      <c r="G8" t="s" s="14">
         <v>49</v>
       </c>
-      <c r="H8" t="s" s="15">
+      <c r="H8" t="s" s="14">
         <v>50</v>
       </c>
-      <c r="I8" t="s" s="15">
+      <c r="I8" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="J8" t="s" s="15">
+      <c r="J8" t="s" s="14">
         <v>52</v>
       </c>
-      <c r="K8" t="s" s="15">
+      <c r="K8" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="13"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" t="s" s="14">
         <v>54</v>
       </c>
-      <c r="D9" t="s" s="15">
+      <c r="D9" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E9" t="s" s="16">
+      <c r="E9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>44995</v>
       </c>
-      <c r="G9" t="s" s="15">
+      <c r="G9" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="H9" t="s" s="15">
+      <c r="H9" t="s" s="14">
         <v>56</v>
       </c>
-      <c r="I9" t="s" s="15">
+      <c r="I9" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="J9" t="s" s="15">
+      <c r="J9" t="s" s="14">
         <v>58</v>
       </c>
-      <c r="K9" t="s" s="15">
+      <c r="K9" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="13"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" t="s" s="14">
         <v>59</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="D10" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="E10" t="s" s="16">
+      <c r="E10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>45000</v>
       </c>
-      <c r="G10" t="s" s="15">
+      <c r="G10" t="s" s="14">
         <v>61</v>
       </c>
-      <c r="H10" t="s" s="15">
+      <c r="H10" t="s" s="14">
         <v>62</v>
       </c>
-      <c r="I10" t="s" s="15">
+      <c r="I10" t="s" s="14">
         <v>63</v>
       </c>
-      <c r="J10" t="s" s="15">
+      <c r="J10" t="s" s="14">
         <v>64</v>
       </c>
-      <c r="K10" t="s" s="15">
+      <c r="K10" t="s" s="14">
         <v>26</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
-      <c r="C11" t="s" s="15">
+      <c r="C11" t="s" s="14">
         <v>65</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="D11" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E11" t="s" s="16">
+      <c r="E11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>45017</v>
       </c>
-      <c r="G11" t="s" s="15">
+      <c r="G11" t="s" s="14">
         <v>66</v>
       </c>
-      <c r="H11" t="s" s="15">
+      <c r="H11" t="s" s="14">
         <v>67</v>
       </c>
-      <c r="I11" t="s" s="15">
+      <c r="I11" t="s" s="14">
         <v>68</v>
       </c>
-      <c r="J11" t="s" s="15">
+      <c r="J11" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="K11" t="s" s="15">
+      <c r="K11" t="s" s="14">
         <v>70</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" t="s" s="14">
         <v>71</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="E12" t="s" s="16">
+      <c r="E12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>45026</v>
       </c>
-      <c r="G12" t="s" s="15">
+      <c r="G12" t="s" s="14">
         <v>72</v>
       </c>
-      <c r="H12" t="s" s="15">
+      <c r="H12" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="I12" t="s" s="15">
+      <c r="I12" t="s" s="14">
         <v>74</v>
       </c>
-      <c r="J12" t="s" s="15">
+      <c r="J12" t="s" s="14">
         <v>75</v>
       </c>
-      <c r="K12" t="s" s="15">
+      <c r="K12" t="s" s="14">
         <v>76</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="13"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" t="s" s="15">
+      <c r="C13" t="s" s="14">
         <v>77</v>
       </c>
-      <c r="D13" t="s" s="15">
+      <c r="D13" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E13" t="s" s="16">
+      <c r="E13" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>45026</v>
       </c>
-      <c r="G13" t="s" s="15">
+      <c r="G13" t="s" s="14">
         <v>72</v>
       </c>
-      <c r="H13" t="s" s="15">
+      <c r="H13" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="I13" t="s" s="15">
+      <c r="I13" t="s" s="14">
         <v>74</v>
       </c>
-      <c r="J13" t="s" s="15">
+      <c r="J13" t="s" s="14">
         <v>75</v>
       </c>
-      <c r="K13" t="s" s="15">
+      <c r="K13" t="s" s="14">
         <v>76</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" t="s" s="15">
+      <c r="C14" t="s" s="14">
         <v>78</v>
       </c>
-      <c r="D14" t="s" s="15">
+      <c r="D14" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="E14" t="s" s="16">
+      <c r="E14" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>45031</v>
       </c>
-      <c r="G14" t="s" s="15">
+      <c r="G14" t="s" s="14">
         <v>79</v>
       </c>
-      <c r="H14" t="s" s="15">
+      <c r="H14" t="s" s="14">
         <v>80</v>
       </c>
-      <c r="I14" t="s" s="15">
+      <c r="I14" t="s" s="14">
         <v>81</v>
       </c>
-      <c r="J14" t="s" s="15">
+      <c r="J14" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="K14" t="s" s="15">
+      <c r="K14" t="s" s="14">
         <v>83</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>13</v>
       </c>
-      <c r="C15" t="s" s="15">
+      <c r="C15" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="D15" t="s" s="15">
+      <c r="D15" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E15" t="s" s="16">
+      <c r="E15" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>45047</v>
       </c>
-      <c r="G15" t="s" s="15">
+      <c r="G15" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="15">
+      <c r="H15" t="s" s="14">
         <v>86</v>
       </c>
-      <c r="I15" t="s" s="15">
+      <c r="I15" t="s" s="14">
         <v>87</v>
       </c>
-      <c r="J15" t="s" s="15">
+      <c r="J15" t="s" s="14">
         <v>88</v>
       </c>
-      <c r="K15" t="s" s="15">
+      <c r="K15" t="s" s="14">
         <v>89</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>14</v>
       </c>
-      <c r="C16" t="s" s="15">
+      <c r="C16" t="s" s="14">
         <v>90</v>
       </c>
-      <c r="D16" t="s" s="15">
+      <c r="D16" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="E16" t="s" s="16">
+      <c r="E16" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>45056</v>
       </c>
-      <c r="G16" t="s" s="15">
+      <c r="G16" t="s" s="14">
         <v>91</v>
       </c>
-      <c r="H16" t="s" s="15">
+      <c r="H16" t="s" s="14">
         <v>92</v>
       </c>
-      <c r="I16" t="s" s="15">
+      <c r="I16" t="s" s="14">
         <v>93</v>
       </c>
-      <c r="J16" t="s" s="15">
+      <c r="J16" t="s" s="14">
         <v>94</v>
       </c>
-      <c r="K16" t="s" s="15">
+      <c r="K16" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>15</v>
       </c>
-      <c r="C17" t="s" s="15">
+      <c r="C17" t="s" s="14">
         <v>95</v>
       </c>
-      <c r="D17" t="s" s="15">
+      <c r="D17" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E17" t="s" s="16">
+      <c r="E17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>45061</v>
       </c>
-      <c r="G17" t="s" s="15">
+      <c r="G17" t="s" s="14">
         <v>96</v>
       </c>
-      <c r="H17" t="s" s="15">
+      <c r="H17" t="s" s="14">
         <v>97</v>
       </c>
-      <c r="I17" t="s" s="15">
+      <c r="I17" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="J17" t="s" s="15">
+      <c r="J17" t="s" s="14">
         <v>99</v>
       </c>
-      <c r="K17" t="s" s="15">
+      <c r="K17" t="s" s="14">
         <v>100</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="13"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>16</v>
       </c>
-      <c r="C18" t="s" s="15">
+      <c r="C18" t="s" s="14">
         <v>101</v>
       </c>
-      <c r="D18" t="s" s="15">
+      <c r="D18" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E18" t="s" s="16">
+      <c r="E18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>45078</v>
       </c>
-      <c r="G18" t="s" s="15">
+      <c r="G18" t="s" s="14">
         <v>102</v>
       </c>
-      <c r="H18" t="s" s="15">
+      <c r="H18" t="s" s="14">
         <v>103</v>
       </c>
-      <c r="I18" t="s" s="15">
+      <c r="I18" t="s" s="14">
         <v>104</v>
       </c>
-      <c r="J18" t="s" s="15">
+      <c r="J18" t="s" s="14">
         <v>105</v>
       </c>
-      <c r="K18" t="s" s="15">
+      <c r="K18" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="13"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="15">
+      <c r="C19" t="s" s="14">
         <v>106</v>
       </c>
-      <c r="D19" t="s" s="15">
+      <c r="D19" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E19" t="s" s="16">
+      <c r="E19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>45087</v>
       </c>
-      <c r="G19" t="s" s="15">
+      <c r="G19" t="s" s="14">
         <v>107</v>
       </c>
-      <c r="H19" t="s" s="15">
+      <c r="H19" t="s" s="14">
         <v>108</v>
       </c>
-      <c r="I19" t="s" s="15">
+      <c r="I19" t="s" s="14">
         <v>109</v>
       </c>
-      <c r="J19" t="s" s="15">
+      <c r="J19" t="s" s="14">
         <v>110</v>
       </c>
-      <c r="K19" t="s" s="15">
+      <c r="K19" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="13"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>18</v>
       </c>
-      <c r="C20" t="s" s="15">
+      <c r="C20" t="s" s="14">
         <v>111</v>
       </c>
-      <c r="D20" t="s" s="15">
+      <c r="D20" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="E20" t="s" s="16">
+      <c r="E20" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>45092</v>
       </c>
-      <c r="G20" t="s" s="15">
+      <c r="G20" t="s" s="14">
         <v>112</v>
       </c>
-      <c r="H20" t="s" s="15">
+      <c r="H20" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="I20" t="s" s="15">
+      <c r="I20" t="s" s="14">
         <v>113</v>
       </c>
-      <c r="J20" t="s" s="15">
+      <c r="J20" t="s" s="14">
         <v>114</v>
       </c>
-      <c r="K20" t="s" s="15">
+      <c r="K20" t="s" s="14">
         <v>115</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="13"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>19</v>
       </c>
-      <c r="C21" t="s" s="15">
+      <c r="C21" t="s" s="14">
         <v>116</v>
       </c>
-      <c r="D21" t="s" s="15">
+      <c r="D21" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="E21" t="s" s="19">
+      <c r="E21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>45108</v>
       </c>
-      <c r="G21" t="s" s="15">
+      <c r="G21" t="s" s="14">
         <v>117</v>
       </c>
-      <c r="H21" t="s" s="15">
+      <c r="H21" t="s" s="14">
         <v>118</v>
       </c>
-      <c r="I21" t="s" s="15">
+      <c r="I21" t="s" s="14">
         <v>119</v>
       </c>
-      <c r="J21" t="s" s="15">
+      <c r="J21" t="s" s="14">
         <v>120</v>
       </c>
-      <c r="K21" t="s" s="15">
+      <c r="K21" t="s" s="14">
         <v>89</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="13"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19">
         <v>20</v>
       </c>
-      <c r="C22" t="s" s="22">
+      <c r="C22" t="s" s="20">
         <v>121</v>
       </c>
-      <c r="D22" t="s" s="22">
+      <c r="D22" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="E22" t="s" s="23">
+      <c r="E22" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <v>45146</v>
       </c>
-      <c r="G22" t="s" s="23">
+      <c r="G22" t="s" s="21">
         <v>122</v>
       </c>
-      <c r="H22" t="s" s="23">
+      <c r="H22" t="s" s="21">
         <v>123</v>
       </c>
-      <c r="I22" t="s" s="23">
+      <c r="I22" t="s" s="21">
         <v>124</v>
       </c>
-      <c r="J22" t="s" s="23">
+      <c r="J22" t="s" s="21">
         <v>125</v>
       </c>
-      <c r="K22" t="s" s="23">
+      <c r="K22" t="s" s="21">
         <v>126</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2766,147 +3074,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="27" customWidth="1"/>
-    <col min="3" max="3" width="74.5" style="27" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="27" customWidth="1"/>
+    <col min="1" max="2" width="8.85156" style="25" customWidth="1"/>
+    <col min="3" max="3" width="74.5" style="25" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="28"/>
-      <c r="B1" t="s" s="29">
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" t="s" s="33">
+      <c r="A2" s="30"/>
+      <c r="B2" t="s" s="31">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="33">
+      <c r="C2" t="s" s="31">
         <v>127</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="14">
+      <c r="A3" s="30"/>
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="35">
+      <c r="C3" t="s" s="15">
         <v>128</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="14">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="35">
+      <c r="C4" t="s" s="15">
         <v>129</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="14">
+      <c r="A5" s="30"/>
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="35">
+      <c r="C5" t="s" s="15">
         <v>130</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="14">
+      <c r="A6" s="30"/>
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="35">
+      <c r="C6" t="s" s="15">
         <v>131</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="14">
+      <c r="A7" s="30"/>
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="35">
+      <c r="C7" t="s" s="15">
         <v>132</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="14">
+      <c r="A8" s="30"/>
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="35">
+      <c r="C8" t="s" s="15">
         <v>133</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="14">
+      <c r="A9" s="30"/>
+      <c r="B9" s="13">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="35">
+      <c r="C9" t="s" s="15">
         <v>134</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="14">
+      <c r="A10" s="30"/>
+      <c r="B10" s="13">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="35">
+      <c r="C10" t="s" s="15">
         <v>135</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="14">
+      <c r="A11" s="30"/>
+      <c r="B11" s="13">
         <v>9</v>
       </c>
-      <c r="C11" t="s" s="35">
+      <c r="C11" t="s" s="15">
         <v>136</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="38">
+      <c r="C12" t="s" s="35">
         <v>137</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="38">
+        <v>138</v>
+      </c>
+      <c r="B13" s="39">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="40">
+        <v>139</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="39">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="40">
+        <v>140</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="39">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="40">
+        <v>141</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="43"/>
+      <c r="B16" s="39">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="40">
+        <v>142</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="38">
+        <v>143</v>
+      </c>
+      <c r="B17" s="39">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s" s="40">
+        <v>144</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="39">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s" s="40">
+        <v>145</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="39">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="40">
+        <v>146</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="38">
+        <v>147</v>
+      </c>
+      <c r="B20" s="39">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="40">
+        <v>148</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="39">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="40">
+        <v>149</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="38">
+        <v>150</v>
+      </c>
+      <c r="B22" s="39">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="40">
+        <v>151</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="39">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s" s="40">
+        <v>152</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="39">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="40">
+        <v>153</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" t="s" s="38">
+        <v>154</v>
+      </c>
+      <c r="B25" s="39">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="40">
+        <v>155</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="39">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s" s="40">
+        <v>156</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="39">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s" s="40">
+        <v>157</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" t="s" s="38">
+        <v>158</v>
+      </c>
+      <c r="B28" s="39">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s" s="40">
+        <v>159</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="39">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s" s="40">
+        <v>160</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,416 +3433,1242 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="41" customWidth="1"/>
-    <col min="2" max="3" width="12.8516" style="41" customWidth="1"/>
-    <col min="4" max="4" width="42.6719" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="8.85156" style="41" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="47" customWidth="1"/>
+    <col min="2" max="3" width="12.8516" style="47" customWidth="1"/>
+    <col min="4" max="4" width="64.5469" style="47" customWidth="1"/>
+    <col min="5" max="16384" width="8.85156" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="42">
+      <c r="A1" t="s" s="48">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="43">
+      <c r="A2" t="s" s="49">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="33">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s" s="33">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s" s="44">
-        <v>140</v>
+      <c r="B2" t="s" s="31">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s" s="31">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s" s="50">
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="45">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="46">
-        <v>141</v>
+      <c r="D3" t="s" s="52">
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="45">
+      <c r="A4" s="51">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" t="s" s="46">
-        <v>142</v>
+      <c r="D4" t="s" s="52">
+        <v>165</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="45">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" t="s" s="46">
-        <v>143</v>
+      <c r="D5" t="s" s="52">
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="45">
+      <c r="A6" s="51">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="46">
-        <v>144</v>
+      <c r="D6" t="s" s="52">
+        <v>167</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="45">
+      <c r="A7" s="51">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="46">
-        <v>145</v>
+      <c r="D7" t="s" s="52">
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="45">
+      <c r="A8" s="51">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="46">
-        <v>146</v>
+      <c r="D8" t="s" s="52">
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="45">
+      <c r="A9" s="51">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" t="s" s="46">
-        <v>147</v>
+      <c r="D9" t="s" s="52">
+        <v>170</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="45">
+      <c r="A10" s="51">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" t="s" s="46">
-        <v>148</v>
+      <c r="D10" t="s" s="52">
+        <v>171</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="45">
+      <c r="A11" s="51">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" t="s" s="46">
-        <v>149</v>
+      <c r="D11" t="s" s="52">
+        <v>172</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="45">
+      <c r="A12" s="51">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>4</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>2</v>
       </c>
-      <c r="D12" t="s" s="46">
-        <v>150</v>
+      <c r="D12" t="s" s="52">
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="45">
+      <c r="A13" s="51">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>5</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" t="s" s="46">
-        <v>151</v>
+      <c r="D13" t="s" s="52">
+        <v>174</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="45">
+      <c r="A14" s="51">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" t="s" s="46">
-        <v>152</v>
+      <c r="D14" t="s" s="52">
+        <v>175</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="45">
+      <c r="A15" s="51">
         <v>13</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>5</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="46">
-        <v>153</v>
+      <c r="D15" t="s" s="52">
+        <v>176</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="45">
+      <c r="A16" s="51">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>6</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>1</v>
       </c>
-      <c r="D16" t="s" s="46">
-        <v>154</v>
+      <c r="D16" t="s" s="52">
+        <v>177</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="45">
+      <c r="A17" s="51">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>6</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" t="s" s="46">
-        <v>155</v>
+      <c r="D17" t="s" s="52">
+        <v>178</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="45">
+      <c r="A18" s="51">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" t="s" s="46">
-        <v>156</v>
+      <c r="D18" t="s" s="52">
+        <v>179</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="45">
+      <c r="A19" s="51">
         <v>17</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>7</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" t="s" s="46">
-        <v>157</v>
+      <c r="D19" t="s" s="52">
+        <v>180</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="45">
+      <c r="A20" s="51">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>7</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" t="s" s="46">
-        <v>158</v>
+      <c r="D20" t="s" s="52">
+        <v>181</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="45">
+      <c r="A21" s="51">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>8</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" t="s" s="46">
-        <v>159</v>
+      <c r="D21" t="s" s="52">
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="45">
+      <c r="A22" s="51">
         <v>20</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>8</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
-      <c r="D22" t="s" s="46">
-        <v>160</v>
+      <c r="D22" t="s" s="52">
+        <v>183</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="45">
+      <c r="A23" s="51">
         <v>21</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>8</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="46">
-        <v>161</v>
+      <c r="D23" t="s" s="52">
+        <v>184</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="45">
+      <c r="A24" s="51">
         <v>22</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>9</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" t="s" s="46">
-        <v>162</v>
+      <c r="D24" t="s" s="52">
+        <v>185</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="45">
+      <c r="A25" s="51">
         <v>23</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>9</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>2</v>
       </c>
-      <c r="D25" t="s" s="46">
-        <v>163</v>
+      <c r="D25" t="s" s="52">
+        <v>186</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="45">
+      <c r="A26" s="51">
         <v>24</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>9</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="46">
-        <v>164</v>
+      <c r="D26" t="s" s="52">
+        <v>187</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="45">
+      <c r="A27" s="51">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>10</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" t="s" s="46">
-        <v>165</v>
+      <c r="D27" t="s" s="52">
+        <v>188</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="45">
+      <c r="A28" s="51">
         <v>26</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>10</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>2</v>
       </c>
-      <c r="D28" t="s" s="46">
-        <v>166</v>
+      <c r="D28" t="s" s="52">
+        <v>189</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="47">
+      <c r="A29" s="51">
         <v>27</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="13">
         <v>10</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="13">
         <v>3</v>
       </c>
-      <c r="D29" t="s" s="48">
-        <v>167</v>
+      <c r="D29" t="s" s="52">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" s="51">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13">
+        <v>11</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s" s="52">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" s="51">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13">
+        <v>12</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s" s="52">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" s="51">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13">
+        <v>12</v>
+      </c>
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="52">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" s="51">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13">
+        <v>12</v>
+      </c>
+      <c r="C33" s="13">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s" s="52">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" s="51">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13">
+        <v>12</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s" s="52">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" s="51">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13">
+        <v>13</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s" s="52">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" s="51">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13">
+        <v>13</v>
+      </c>
+      <c r="C36" s="13">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="52">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" s="51">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13">
+        <v>13</v>
+      </c>
+      <c r="C37" s="13">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s" s="52">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" ht="13.55" customHeight="1">
+      <c r="A38" s="51">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13">
+        <v>13</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s" s="52">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" ht="13.55" customHeight="1">
+      <c r="A39" s="51">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13">
+        <v>14</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" ht="13.55" customHeight="1">
+      <c r="A40" s="51">
+        <v>38</v>
+      </c>
+      <c r="B40" s="13">
+        <v>14</v>
+      </c>
+      <c r="C40" s="13">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="52">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" ht="13.55" customHeight="1">
+      <c r="A41" s="51">
+        <v>39</v>
+      </c>
+      <c r="B41" s="13">
+        <v>14</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s" s="52">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" s="51">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13">
+        <v>14</v>
+      </c>
+      <c r="C42" s="13">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s" s="52">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" s="51">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13">
+        <v>15</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s" s="52">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" ht="13.55" customHeight="1">
+      <c r="A44" s="51">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13">
+        <v>15</v>
+      </c>
+      <c r="C44" s="13">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="52">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" s="51">
+        <v>43</v>
+      </c>
+      <c r="B45" s="13">
+        <v>15</v>
+      </c>
+      <c r="C45" s="13">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s" s="52">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" s="51">
+        <v>44</v>
+      </c>
+      <c r="B46" s="13">
+        <v>15</v>
+      </c>
+      <c r="C46" s="13">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s" s="52">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" s="51">
+        <v>45</v>
+      </c>
+      <c r="B47" s="13">
+        <v>16</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s" s="52">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" ht="13.55" customHeight="1">
+      <c r="A48" s="51">
+        <v>46</v>
+      </c>
+      <c r="B48" s="13">
+        <v>16</v>
+      </c>
+      <c r="C48" s="13">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="52">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" ht="13.55" customHeight="1">
+      <c r="A49" s="51">
+        <v>47</v>
+      </c>
+      <c r="B49" s="13">
+        <v>16</v>
+      </c>
+      <c r="C49" s="13">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s" s="52">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" ht="13.55" customHeight="1">
+      <c r="A50" s="51">
+        <v>48</v>
+      </c>
+      <c r="B50" s="13">
+        <v>16</v>
+      </c>
+      <c r="C50" s="13">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s" s="52">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" s="51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="13">
+        <v>17</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s" s="52">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" ht="13.55" customHeight="1">
+      <c r="A52" s="51">
+        <v>50</v>
+      </c>
+      <c r="B52" s="13">
+        <v>17</v>
+      </c>
+      <c r="C52" s="13">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="52">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" ht="13.55" customHeight="1">
+      <c r="A53" s="51">
+        <v>51</v>
+      </c>
+      <c r="B53" s="13">
+        <v>17</v>
+      </c>
+      <c r="C53" s="13">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s" s="52">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" ht="13.55" customHeight="1">
+      <c r="A54" s="51">
+        <v>52</v>
+      </c>
+      <c r="B54" s="13">
+        <v>17</v>
+      </c>
+      <c r="C54" s="13">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s" s="52">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" ht="13.55" customHeight="1">
+      <c r="A55" s="51">
+        <v>53</v>
+      </c>
+      <c r="B55" s="13">
+        <v>18</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s" s="52">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" ht="13.55" customHeight="1">
+      <c r="A56" s="51">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13">
+        <v>18</v>
+      </c>
+      <c r="C56" s="13">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="52">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" ht="13.55" customHeight="1">
+      <c r="A57" s="51">
+        <v>55</v>
+      </c>
+      <c r="B57" s="13">
+        <v>18</v>
+      </c>
+      <c r="C57" s="13">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s" s="52">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" ht="13.55" customHeight="1">
+      <c r="A58" s="51">
+        <v>56</v>
+      </c>
+      <c r="B58" s="13">
+        <v>18</v>
+      </c>
+      <c r="C58" s="13">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s" s="52">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" ht="13.55" customHeight="1">
+      <c r="A59" s="51">
+        <v>57</v>
+      </c>
+      <c r="B59" s="13">
+        <v>19</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s" s="52">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" ht="13.55" customHeight="1">
+      <c r="A60" s="51">
+        <v>58</v>
+      </c>
+      <c r="B60" s="13">
+        <v>19</v>
+      </c>
+      <c r="C60" s="13">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="52">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" ht="13.55" customHeight="1">
+      <c r="A61" s="51">
+        <v>59</v>
+      </c>
+      <c r="B61" s="13">
+        <v>19</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s" s="52">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" ht="13.55" customHeight="1">
+      <c r="A62" s="51">
+        <v>60</v>
+      </c>
+      <c r="B62" s="13">
+        <v>19</v>
+      </c>
+      <c r="C62" s="13">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s" s="52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" ht="13.55" customHeight="1">
+      <c r="A63" s="51">
+        <v>61</v>
+      </c>
+      <c r="B63" s="13">
+        <v>20</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s" s="52">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" ht="13.55" customHeight="1">
+      <c r="A64" s="51">
+        <v>62</v>
+      </c>
+      <c r="B64" s="13">
+        <v>20</v>
+      </c>
+      <c r="C64" s="13">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="52">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" ht="13.55" customHeight="1">
+      <c r="A65" s="51">
+        <v>63</v>
+      </c>
+      <c r="B65" s="13">
+        <v>20</v>
+      </c>
+      <c r="C65" s="13">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s" s="52">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" ht="13.55" customHeight="1">
+      <c r="A66" s="51">
+        <v>64</v>
+      </c>
+      <c r="B66" s="13">
+        <v>20</v>
+      </c>
+      <c r="C66" s="13">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s" s="52">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" ht="13.55" customHeight="1">
+      <c r="A67" s="51">
+        <v>65</v>
+      </c>
+      <c r="B67" s="13">
+        <v>21</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s" s="52">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" ht="13.55" customHeight="1">
+      <c r="A68" s="51">
+        <v>66</v>
+      </c>
+      <c r="B68" s="13">
+        <v>22</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s" s="52">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" ht="13.55" customHeight="1">
+      <c r="A69" s="51">
+        <v>67</v>
+      </c>
+      <c r="B69" s="13">
+        <v>22</v>
+      </c>
+      <c r="C69" s="13">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="52">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" ht="13.55" customHeight="1">
+      <c r="A70" s="51">
+        <v>68</v>
+      </c>
+      <c r="B70" s="13">
+        <v>22</v>
+      </c>
+      <c r="C70" s="13">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s" s="52">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" ht="13.55" customHeight="1">
+      <c r="A71" s="51">
+        <v>69</v>
+      </c>
+      <c r="B71" s="13">
+        <v>22</v>
+      </c>
+      <c r="C71" s="13">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s" s="52">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" ht="13.55" customHeight="1">
+      <c r="A72" s="51">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13">
+        <v>23</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s" s="52">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" ht="13.55" customHeight="1">
+      <c r="A73" s="51">
+        <v>71</v>
+      </c>
+      <c r="B73" s="13">
+        <v>24</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s" s="52">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" ht="13.55" customHeight="1">
+      <c r="A74" s="51">
+        <v>72</v>
+      </c>
+      <c r="B74" s="13">
+        <v>24</v>
+      </c>
+      <c r="C74" s="13">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="52">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" ht="13.55" customHeight="1">
+      <c r="A75" s="51">
+        <v>73</v>
+      </c>
+      <c r="B75" s="13">
+        <v>24</v>
+      </c>
+      <c r="C75" s="13">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s" s="52">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" ht="13.55" customHeight="1">
+      <c r="A76" s="51">
+        <v>74</v>
+      </c>
+      <c r="B76" s="13">
+        <v>24</v>
+      </c>
+      <c r="C76" s="13">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s" s="52">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" ht="13.55" customHeight="1">
+      <c r="A77" s="51">
+        <v>75</v>
+      </c>
+      <c r="B77" s="13">
+        <v>25</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s" s="52">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" ht="13.55" customHeight="1">
+      <c r="A78" s="51">
+        <v>76</v>
+      </c>
+      <c r="B78" s="13">
+        <v>25</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="52">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" ht="13.55" customHeight="1">
+      <c r="A79" s="51">
+        <v>77</v>
+      </c>
+      <c r="B79" s="13">
+        <v>25</v>
+      </c>
+      <c r="C79" s="13">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s" s="52">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" ht="13.55" customHeight="1">
+      <c r="A80" s="51">
+        <v>78</v>
+      </c>
+      <c r="B80" s="13">
+        <v>25</v>
+      </c>
+      <c r="C80" s="13">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s" s="52">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" ht="13.55" customHeight="1">
+      <c r="A81" s="51">
+        <v>79</v>
+      </c>
+      <c r="B81" s="13">
+        <v>26</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s" s="52">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" ht="13.55" customHeight="1">
+      <c r="A82" s="51">
+        <v>80</v>
+      </c>
+      <c r="B82" s="13">
+        <v>26</v>
+      </c>
+      <c r="C82" s="13">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="52">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" ht="13.55" customHeight="1">
+      <c r="A83" s="51">
+        <v>81</v>
+      </c>
+      <c r="B83" s="13">
+        <v>26</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s" s="52">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" ht="13.55" customHeight="1">
+      <c r="A84" s="51">
+        <v>82</v>
+      </c>
+      <c r="B84" s="13">
+        <v>26</v>
+      </c>
+      <c r="C84" s="13">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s" s="52">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" ht="13.55" customHeight="1">
+      <c r="A85" s="51">
+        <v>83</v>
+      </c>
+      <c r="B85" s="13">
+        <v>27</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s" s="52">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" ht="13.55" customHeight="1">
+      <c r="A86" s="51">
+        <v>84</v>
+      </c>
+      <c r="B86" s="13">
+        <v>27</v>
+      </c>
+      <c r="C86" s="13">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="52">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" ht="13.55" customHeight="1">
+      <c r="A87" s="51">
+        <v>87</v>
+      </c>
+      <c r="B87" s="13">
+        <v>27</v>
+      </c>
+      <c r="C87" s="13">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s" s="52">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" ht="13.55" customHeight="1">
+      <c r="A88" s="53">
+        <v>88</v>
+      </c>
+      <c r="B88" s="34">
+        <v>27</v>
+      </c>
+      <c r="C88" s="34">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s" s="54">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
